--- a/GDCT-driven/E.ModelImplementation/Results_Min_P_SG/imag_parts_eigenvalues_SSCOPF_Min_P_SG.xlsx
+++ b/GDCT-driven/E.ModelImplementation/Results_Min_P_SG/imag_parts_eigenvalues_SSCOPF_Min_P_SG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="213" uniqueCount="71">
   <si>
     <t>imag_parts_eig1</t>
   </si>
